--- a/Test/CanToolAPPTestCase.xlsx
+++ b/Test/CanToolAPPTestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
   <si>
     <t>预期结果</t>
   </si>
@@ -706,12 +706,115 @@
     <t>成功加载Can信息数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>边界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanToolApp中设置物理值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.1正常值测试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在CanToolApp界面设置物理值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理值的范围设置正常的物理值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置正常并显示在CanToolAppGUI界面上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置正常的物理值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下界边界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上界边界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2下界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3上界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理值的范围设置下界值及其左右数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理值的范围设置上界值及其左右数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4非法字符测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入非法字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在输入物理值的地方输入非法字符，比如字母或者汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示用户输入非法，重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示用户输入值超出范围，重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有提示用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -762,6 +865,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -777,7 +887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -994,11 +1104,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
@@ -1050,7 +1297,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,43 +1330,97 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1417,11 +1727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L25"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1442,30 +1752,30 @@
   <sheetData>
     <row r="1" spans="2:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="11" t="s">
@@ -1522,8 +1832,8 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="29"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1543,8 +1853,8 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1554,93 +1864,93 @@
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="31" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="31" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="19" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="29"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:12" ht="162" x14ac:dyDescent="0.15">
-      <c r="B11" s="29"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -1650,18 +1960,18 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="31" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="19" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -1671,292 +1981,551 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="31" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="19" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="29"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="19" t="s">
         <v>62</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B15" s="29"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="31" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="19" t="s">
         <v>66</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="31" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="19" t="s">
         <v>70</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="37"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="38" t="s">
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="19" t="s">
         <v>87</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B18" s="29"/>
-      <c r="C18" s="36" t="s">
+    <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B18" s="35"/>
+      <c r="C18" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="19" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B19" s="29"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="31" t="s">
+    <row r="19" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="19" t="s">
         <v>82</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="29"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31" t="s">
+    <row r="20" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="19" t="s">
         <v>90</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B21" s="29"/>
-      <c r="C21" s="35" t="s">
+    <row r="21" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B21" s="35"/>
+      <c r="C21" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="19" t="s">
         <v>98</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="29"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="31" t="s">
+    <row r="22" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="19" t="s">
         <v>101</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="29"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="31" t="s">
+    <row r="23" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="19" t="s">
         <v>105</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="2:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="29"/>
-      <c r="C24" s="35" t="s">
+    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="19" t="s">
         <v>116</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="29"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="31" t="s">
+    <row r="25" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="37"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="19" t="s">
         <v>112</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="14"/>
     </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="39"/>
+      <c r="B27" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="54">
+        <v>2.1</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="49"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="44"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="44"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="50"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="44"/>
+      <c r="C31" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="44"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="47"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="44"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="50"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="44"/>
+      <c r="C34" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="54">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="44"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="47"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="44"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="47"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="44"/>
+      <c r="C37" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="54">
+        <v>2.4</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="44"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="47"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="60"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J40" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="43">
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="B5:B25"/>
     <mergeCell ref="C21:C23"/>

--- a/Test/CanToolAPPTestCase.xlsx
+++ b/Test/CanToolAPPTestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="155">
   <si>
     <t>预期结果</t>
   </si>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>失败原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CanToolAPP]项目测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -734,51 +730,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>设置正常并显示在CanToolAppGUI界面上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置正常的物理值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下界边界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上界边界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2下界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3上界值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理值的范围设置下界值及其左右数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理值的范围设置上界值及其左右数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示用户输入非法，重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示用户输入值超出范围，重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有提示用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认取范围内最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>根据物理值的范围设置正常的物理值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置正常并显示在CanToolAppGUI界面上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置正常的物理值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下界边界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上界边界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2下界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3上界值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据物理值的范围设置下界值及其左右数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据物理值的范围设置上界值及其左右数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4非法字符测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入非法字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在输入物理值的地方输入非法字符，比如字母或者汉字</t>
+    <t>等价化分类测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1正常值数字测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2字母测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3汉字值测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物理值的范围设置正常的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在设置物理值的文本框中输入字母包含大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在设置物理值的文本框中输入汉字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -786,27 +838,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提示用户输入值超出范围，重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有提示用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认取范围内的最小值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认取范围内的最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认取范围内最小值</t>
+    <t>[CanToolAPP]项目测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4非法字符测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法字符测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合字符测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5组合测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在输入物理值的文本框输入非法字符，比如@,%,$,&amp;等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在输入物理值的文本框输入组合字符，如1t&amp;等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +874,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -872,6 +932,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -887,7 +954,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1241,11 +1308,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
@@ -1272,9 +1404,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1284,7 +1413,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1309,55 +1437,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1366,7 +1445,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1375,31 +1478,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1411,16 +1490,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1727,11 +1898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1752,33 +1923,33 @@
   <sheetData>
     <row r="1" spans="2:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1794,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>0</v>
@@ -1802,712 +1973,965 @@
       <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="55"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="55"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B8" s="55"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B9" s="55"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B10" s="55"/>
+      <c r="C10" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="29" t="s">
+      <c r="E10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" ht="162" x14ac:dyDescent="0.15">
+      <c r="B11" s="55"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="55"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="55"/>
+      <c r="C14" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="D14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="B15" s="55"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="55"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="55"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B18" s="55"/>
+      <c r="C18" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B19" s="55"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="55"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="2:12" ht="162" x14ac:dyDescent="0.15">
-      <c r="B11" s="35"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" s="35"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="35"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="2:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="35"/>
-      <c r="C14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="2:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B15" s="35"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="35"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B18" s="35"/>
-      <c r="C18" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B19" s="35"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="G20" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="H20" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="B21" s="55"/>
+      <c r="C21" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B21" s="35"/>
-      <c r="C21" s="29" t="s">
+      <c r="D21" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="55"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="19" t="s">
+      <c r="E22" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="35"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="20" t="s">
+      <c r="F22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="55"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="19" t="s">
+      <c r="E23" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="35"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="H23" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B24" s="55"/>
+      <c r="C24" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="35"/>
-      <c r="C24" s="29" t="s">
+      <c r="D24" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="E24" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="56"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="19" t="s">
+      <c r="E25" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="67"/>
+      <c r="J25" s="68"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="37"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="39"/>
-      <c r="B27" s="55" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="58" t="s">
+      <c r="C28" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="D28" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="54">
-        <v>2.1</v>
-      </c>
-      <c r="E28" s="51" t="s">
+      <c r="G28" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="34"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="34"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="34"/>
+      <c r="C31" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="34"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="34"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="34"/>
+      <c r="C34" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F34" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="34"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="35"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="70"/>
+    </row>
+    <row r="38" spans="2:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B38" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="J28" s="49"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="44"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="47"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="44"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="50"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="44"/>
-      <c r="C31" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="54">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="51" t="s">
+      <c r="I39" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" s="43"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="73"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="30"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="73"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="36"/>
+    </row>
+    <row r="42" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="73"/>
+      <c r="C42" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="32">
+        <v>3.2</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="51" t="s">
+      <c r="I42" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="73"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="30"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="73"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="36"/>
+    </row>
+    <row r="45" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="73"/>
+      <c r="C45" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="32">
+        <v>3.3</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="73"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="30"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="73"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="73"/>
+      <c r="C48" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="44"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="44"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="50"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="44"/>
-      <c r="C34" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="54">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="H34" s="51" t="s">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="73"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="30"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="21"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="30"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="21"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="E51" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J51" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J34" s="61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B35" s="44"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="47"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B36" s="44"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="47"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B37" s="44"/>
-      <c r="C37" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="54">
-        <v>2.4</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="I37" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B38" s="44"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="47"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="60"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="J40" s="38"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="21"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="61"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="62"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I54" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
+  <mergeCells count="77">
+    <mergeCell ref="B39:B53"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B5:B25"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C28:C30"/>
@@ -2518,19 +2942,23 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="E28:E30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B28:B36"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B5:B25"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
